--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_6_14.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_6_14.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>258772.559180564</v>
+        <v>268830.0395897314</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5095622.684065031</v>
+        <v>4968231.017992428</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22414251.77131045</v>
+        <v>22289395.19939268</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3987643.511599784</v>
+        <v>4041296.149834169</v>
       </c>
     </row>
     <row r="11">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2093,13 +2093,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="I20" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2135,16 +2135,16 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2160,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2205,13 +2205,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>24.30129424928645</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="S21" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2223,10 +2223,10 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
     </row>
     <row r="22">
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2260,10 +2260,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0.1792675346265556</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -2281,13 +2281,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="R22" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2302,10 +2302,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>9.977552361264268</v>
       </c>
     </row>
     <row r="23">
@@ -2318,25 +2318,25 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="G23" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>24.30129424928645</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2381,7 +2381,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2403,7 +2403,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>24.30129424928645</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2445,16 +2445,16 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="U24" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -2476,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2491,13 +2491,13 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>22.44875936050941</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>9.977552361264268</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2518,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2527,10 +2527,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,10 +2606,10 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>24.30129424928645</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2634,10 +2634,10 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>34.11888750173132</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2652,10 +2652,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2679,10 +2679,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -2694,13 +2694,13 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2722,19 +2722,19 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="G28" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="I28" t="n">
-        <v>22.44875936050941</v>
+        <v>7.256111626157768</v>
       </c>
       <c r="J28" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2752,7 +2752,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -2773,7 +2773,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2789,13 +2789,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2.361305680129117</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="C29" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2813,7 +2813,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2834,16 +2834,16 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2855,10 +2855,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
     </row>
     <row r="30">
@@ -2868,10 +2868,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2883,10 +2883,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="H30" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2925,19 +2925,19 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
     </row>
     <row r="31">
@@ -2950,10 +2950,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>19.72731862540289</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>9.977552361264268</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2989,7 +2989,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -3001,19 +3001,19 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3035,19 +3035,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>12.92549025883184</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -3071,25 +3071,25 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>12.35200489467393</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3111,19 +3111,19 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3162,16 +3162,16 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>24.30129424928645</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3226,16 +3226,16 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3247,13 +3247,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>9.977552361264268</v>
       </c>
       <c r="X34" t="n">
-        <v>19.72731862540289</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
     </row>
     <row r="35">
@@ -3263,16 +3263,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="C35" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>24.30129424928645</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="E35" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3323,13 +3323,13 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="X35" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3342,10 +3342,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3360,7 +3360,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3390,19 +3390,19 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>9.977552361264271</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3475,22 +3475,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>22.44875936050941</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="X37" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
     </row>
     <row r="38">
@@ -3509,16 +3509,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,19 +3551,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="T38" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3579,10 +3579,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3627,28 +3627,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3667,13 +3667,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="F40" t="n">
-        <v>22.44875936050941</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>9.977552361264268</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3724,10 +3724,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
     </row>
     <row r="41">
@@ -3737,13 +3737,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3788,16 +3788,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="V41" t="n">
-        <v>27.59002526031614</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3816,22 +3816,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3870,7 +3870,7 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -3879,13 +3879,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
     </row>
     <row r="43">
@@ -3898,13 +3898,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>9.977552361264268</v>
       </c>
       <c r="E43" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3937,16 +3937,16 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>19.72731862540288</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3955,7 +3955,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>26.7539638887914</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="C20" t="n">
-        <v>26.7539638887914</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="D20" t="n">
-        <v>26.7539638887914</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="E20" t="n">
-        <v>26.7539638887914</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="F20" t="n">
-        <v>26.7539638887914</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="G20" t="n">
-        <v>26.7539638887914</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="H20" t="n">
-        <v>26.7539638887914</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I20" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J20" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K20" t="n">
-        <v>2.207202020825291</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L20" t="n">
-        <v>2.207202020825291</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="M20" t="n">
-        <v>28.41772601812563</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="N20" t="n">
-        <v>55.73185102583861</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="O20" t="n">
-        <v>83.04597603355158</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P20" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q20" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R20" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S20" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T20" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U20" t="n">
-        <v>82.49138865710684</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="V20" t="n">
-        <v>82.49138865710684</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="W20" t="n">
-        <v>54.62267627294912</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="X20" t="n">
-        <v>26.7539638887914</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="Y20" t="n">
-        <v>26.7539638887914</v>
+        <v>118.3517937444931</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2.207202020825291</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="C21" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D21" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E21" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F21" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G21" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H21" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I21" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J21" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K21" t="n">
-        <v>29.52132702853827</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L21" t="n">
-        <v>56.83545203625125</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="M21" t="n">
-        <v>84.14957704396423</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="N21" t="n">
-        <v>110.3601010412646</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="O21" t="n">
-        <v>110.3601010412646</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="P21" t="n">
-        <v>110.3601010412646</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="Q21" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R21" t="n">
-        <v>85.81333917329844</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="S21" t="n">
-        <v>57.94462678914073</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="T21" t="n">
-        <v>30.07591440498301</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="U21" t="n">
-        <v>30.07591440498301</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="V21" t="n">
-        <v>30.07591440498301</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="W21" t="n">
-        <v>30.07591440498301</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="X21" t="n">
-        <v>2.207202020825291</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="Y21" t="n">
-        <v>2.207202020825291</v>
+        <v>43.15042425981653</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>24.88271652639035</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C22" t="n">
-        <v>24.88271652639035</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D22" t="n">
-        <v>24.88271652639035</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E22" t="n">
-        <v>24.88271652639035</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F22" t="n">
-        <v>24.88271652639035</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G22" t="n">
-        <v>24.88271652639035</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H22" t="n">
-        <v>24.88271652639035</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I22" t="n">
-        <v>24.88271652639035</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J22" t="n">
-        <v>24.70163820858575</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K22" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L22" t="n">
-        <v>29.52132702853827</v>
+        <v>30.48083516466022</v>
       </c>
       <c r="M22" t="n">
-        <v>56.83545203625125</v>
+        <v>69.6688733568824</v>
       </c>
       <c r="N22" t="n">
-        <v>84.14957704396423</v>
+        <v>108.8569115491046</v>
       </c>
       <c r="O22" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="P22" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Q22" t="n">
-        <v>108.4888536788635</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="R22" t="n">
-        <v>80.62014129470579</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="S22" t="n">
-        <v>80.62014129470579</v>
+        <v>13.245045875396</v>
       </c>
       <c r="T22" t="n">
-        <v>80.62014129470579</v>
+        <v>13.245045875396</v>
       </c>
       <c r="U22" t="n">
-        <v>80.62014129470579</v>
+        <v>13.245045875396</v>
       </c>
       <c r="V22" t="n">
-        <v>80.62014129470579</v>
+        <v>13.245045875396</v>
       </c>
       <c r="W22" t="n">
-        <v>80.62014129470579</v>
+        <v>13.245045875396</v>
       </c>
       <c r="X22" t="n">
-        <v>52.75142891054807</v>
+        <v>13.245045875396</v>
       </c>
       <c r="Y22" t="n">
-        <v>52.75142891054807</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>82.49138865710684</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="C23" t="n">
-        <v>54.62267627294912</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="D23" t="n">
-        <v>54.62267627294912</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="E23" t="n">
-        <v>54.62267627294912</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="F23" t="n">
-        <v>54.62267627294912</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="G23" t="n">
-        <v>26.7539638887914</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="H23" t="n">
-        <v>2.207202020825291</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="I23" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J23" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K23" t="n">
-        <v>2.207202020825291</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L23" t="n">
-        <v>29.52132702853827</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="M23" t="n">
-        <v>56.83545203625125</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="N23" t="n">
-        <v>83.04597603355158</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="O23" t="n">
-        <v>83.04597603355158</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P23" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q23" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R23" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S23" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T23" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U23" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="V23" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="W23" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="X23" t="n">
-        <v>82.49138865710684</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Y23" t="n">
-        <v>82.49138865710684</v>
+        <v>158.3355078473624</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>26.7539638887914</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="C24" t="n">
-        <v>26.7539638887914</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="D24" t="n">
-        <v>26.7539638887914</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="E24" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F24" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G24" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H24" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I24" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J24" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K24" t="n">
-        <v>29.52132702853827</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L24" t="n">
-        <v>29.52132702853827</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="M24" t="n">
-        <v>29.52132702853827</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="N24" t="n">
-        <v>55.73185102583861</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="O24" t="n">
-        <v>83.04597603355158</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P24" t="n">
-        <v>110.3601010412646</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="Q24" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R24" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S24" t="n">
-        <v>82.49138865710684</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T24" t="n">
-        <v>54.62267627294912</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="U24" t="n">
-        <v>26.7539638887914</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="V24" t="n">
-        <v>26.7539638887914</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="W24" t="n">
-        <v>26.7539638887914</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="X24" t="n">
-        <v>26.7539638887914</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="Y24" t="n">
-        <v>26.7539638887914</v>
+        <v>38.38436553875449</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>80.62014129470579</v>
+        <v>13.245045875396</v>
       </c>
       <c r="C25" t="n">
-        <v>52.75142891054807</v>
+        <v>13.245045875396</v>
       </c>
       <c r="D25" t="n">
-        <v>52.75142891054807</v>
+        <v>13.245045875396</v>
       </c>
       <c r="E25" t="n">
-        <v>52.75142891054807</v>
+        <v>13.245045875396</v>
       </c>
       <c r="F25" t="n">
-        <v>52.75142891054807</v>
+        <v>13.245045875396</v>
       </c>
       <c r="G25" t="n">
-        <v>52.75142891054807</v>
+        <v>13.245045875396</v>
       </c>
       <c r="H25" t="n">
-        <v>24.88271652639035</v>
+        <v>13.245045875396</v>
       </c>
       <c r="I25" t="n">
-        <v>2.207202020825291</v>
+        <v>13.245045875396</v>
       </c>
       <c r="J25" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K25" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L25" t="n">
-        <v>29.52132702853827</v>
+        <v>30.48083516466022</v>
       </c>
       <c r="M25" t="n">
-        <v>56.83545203625125</v>
+        <v>69.6688733568824</v>
       </c>
       <c r="N25" t="n">
-        <v>84.14957704396423</v>
+        <v>108.8569115491046</v>
       </c>
       <c r="O25" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="P25" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Q25" t="n">
-        <v>108.4888536788635</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="R25" t="n">
-        <v>108.4888536788635</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="S25" t="n">
-        <v>108.4888536788635</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="T25" t="n">
-        <v>80.62014129470579</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="U25" t="n">
-        <v>80.62014129470579</v>
+        <v>13.245045875396</v>
       </c>
       <c r="V25" t="n">
-        <v>80.62014129470579</v>
+        <v>13.245045875396</v>
       </c>
       <c r="W25" t="n">
-        <v>80.62014129470579</v>
+        <v>13.245045875396</v>
       </c>
       <c r="X25" t="n">
-        <v>80.62014129470579</v>
+        <v>13.245045875396</v>
       </c>
       <c r="Y25" t="n">
-        <v>80.62014129470579</v>
+        <v>13.245045875396</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>57.94462678914073</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="C26" t="n">
-        <v>57.94462678914073</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="D26" t="n">
-        <v>57.94462678914073</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="E26" t="n">
-        <v>57.94462678914073</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="F26" t="n">
-        <v>30.07591440498301</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="G26" t="n">
-        <v>2.207202020825291</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="H26" t="n">
-        <v>2.207202020825291</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="I26" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J26" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K26" t="n">
-        <v>29.52132702853827</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L26" t="n">
-        <v>56.83545203625125</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="M26" t="n">
-        <v>56.83545203625125</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="N26" t="n">
-        <v>56.83545203625125</v>
+        <v>120.7308247336138</v>
       </c>
       <c r="O26" t="n">
-        <v>83.04597603355158</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="P26" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q26" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R26" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S26" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T26" t="n">
-        <v>85.81333917329844</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="U26" t="n">
-        <v>85.81333917329844</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="V26" t="n">
-        <v>85.81333917329844</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="W26" t="n">
-        <v>85.81333917329844</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="X26" t="n">
-        <v>85.81333917329844</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="Y26" t="n">
-        <v>85.81333917329844</v>
+        <v>83.13413836268582</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2.207202020825291</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="C27" t="n">
-        <v>2.207202020825291</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="D27" t="n">
-        <v>2.207202020825291</v>
+        <v>43.90455691260225</v>
       </c>
       <c r="E27" t="n">
-        <v>2.207202020825291</v>
+        <v>43.90455691260225</v>
       </c>
       <c r="F27" t="n">
-        <v>2.207202020825291</v>
+        <v>43.90455691260225</v>
       </c>
       <c r="G27" t="n">
-        <v>2.207202020825291</v>
+        <v>43.90455691260225</v>
       </c>
       <c r="H27" t="n">
-        <v>2.207202020825291</v>
+        <v>43.90455691260225</v>
       </c>
       <c r="I27" t="n">
-        <v>2.207202020825291</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="J27" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K27" t="n">
-        <v>29.52132702853827</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L27" t="n">
-        <v>29.52132702853827</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="M27" t="n">
-        <v>29.52132702853827</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="N27" t="n">
-        <v>55.73185102583861</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="O27" t="n">
-        <v>83.04597603355158</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P27" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q27" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R27" t="n">
-        <v>85.81333917329844</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S27" t="n">
-        <v>85.81333917329844</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="T27" t="n">
-        <v>85.81333917329844</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="U27" t="n">
-        <v>85.81333917329844</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="V27" t="n">
-        <v>85.81333917329844</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="W27" t="n">
-        <v>57.94462678914073</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="X27" t="n">
-        <v>30.07591440498301</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="Y27" t="n">
-        <v>2.207202020825291</v>
+        <v>118.3517937444931</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>80.62014129470579</v>
+        <v>155.5865778119012</v>
       </c>
       <c r="C28" t="n">
-        <v>80.62014129470579</v>
+        <v>155.5865778119012</v>
       </c>
       <c r="D28" t="n">
-        <v>80.62014129470579</v>
+        <v>155.5865778119012</v>
       </c>
       <c r="E28" t="n">
-        <v>80.62014129470579</v>
+        <v>155.5865778119012</v>
       </c>
       <c r="F28" t="n">
-        <v>80.62014129470579</v>
+        <v>115.602863709032</v>
       </c>
       <c r="G28" t="n">
-        <v>52.75142891054807</v>
+        <v>75.61914960616267</v>
       </c>
       <c r="H28" t="n">
-        <v>52.75142891054807</v>
+        <v>35.63543550329338</v>
       </c>
       <c r="I28" t="n">
-        <v>30.07591440498301</v>
+        <v>28.30602982030574</v>
       </c>
       <c r="J28" t="n">
-        <v>2.207202020825291</v>
+        <v>28.30602982030574</v>
       </c>
       <c r="K28" t="n">
-        <v>2.207202020825291</v>
+        <v>28.30602982030574</v>
       </c>
       <c r="L28" t="n">
-        <v>29.52132702853827</v>
+        <v>55.62015482801871</v>
       </c>
       <c r="M28" t="n">
-        <v>56.83545203625125</v>
+        <v>94.80819302024089</v>
       </c>
       <c r="N28" t="n">
-        <v>84.14957704396423</v>
+        <v>133.9962312124631</v>
       </c>
       <c r="O28" t="n">
-        <v>108.4888536788635</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="P28" t="n">
-        <v>108.4888536788635</v>
+        <v>155.5865778119012</v>
       </c>
       <c r="Q28" t="n">
-        <v>108.4888536788635</v>
+        <v>155.5865778119012</v>
       </c>
       <c r="R28" t="n">
-        <v>108.4888536788635</v>
+        <v>155.5865778119012</v>
       </c>
       <c r="S28" t="n">
-        <v>108.4888536788635</v>
+        <v>155.5865778119012</v>
       </c>
       <c r="T28" t="n">
-        <v>108.4888536788635</v>
+        <v>155.5865778119012</v>
       </c>
       <c r="U28" t="n">
-        <v>108.4888536788635</v>
+        <v>155.5865778119012</v>
       </c>
       <c r="V28" t="n">
-        <v>108.4888536788635</v>
+        <v>155.5865778119012</v>
       </c>
       <c r="W28" t="n">
-        <v>80.62014129470579</v>
+        <v>155.5865778119012</v>
       </c>
       <c r="X28" t="n">
-        <v>80.62014129470579</v>
+        <v>155.5865778119012</v>
       </c>
       <c r="Y28" t="n">
-        <v>80.62014129470579</v>
+        <v>155.5865778119012</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>70.01461603622408</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C29" t="n">
-        <v>42.14590365206637</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D29" t="n">
-        <v>14.27719126790864</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E29" t="n">
-        <v>14.27719126790864</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F29" t="n">
-        <v>14.27719126790864</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G29" t="n">
-        <v>14.27719126790864</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H29" t="n">
-        <v>14.27719126790864</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I29" t="n">
-        <v>14.27719126790864</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J29" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K29" t="n">
-        <v>29.52132702853827</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L29" t="n">
-        <v>29.52132702853827</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="M29" t="n">
-        <v>56.83545203625125</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="N29" t="n">
-        <v>84.14957704396423</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="O29" t="n">
-        <v>110.3601010412646</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P29" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q29" t="n">
-        <v>100.2684856730375</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R29" t="n">
-        <v>100.2684856730375</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S29" t="n">
-        <v>100.2684856730375</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="T29" t="n">
-        <v>100.2684856730375</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="U29" t="n">
-        <v>100.2684856730375</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="V29" t="n">
-        <v>100.2684856730375</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="W29" t="n">
-        <v>100.2684856730375</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="X29" t="n">
-        <v>72.39977328887976</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="Y29" t="n">
-        <v>72.39977328887976</v>
+        <v>43.15042425981653</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>54.62267627294912</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="C30" t="n">
-        <v>26.7539638887914</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="D30" t="n">
-        <v>26.7539638887914</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="E30" t="n">
-        <v>26.7539638887914</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="F30" t="n">
-        <v>26.7539638887914</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="G30" t="n">
-        <v>26.7539638887914</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H30" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I30" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J30" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K30" t="n">
-        <v>29.52132702853827</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L30" t="n">
-        <v>29.52132702853827</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="M30" t="n">
-        <v>55.73185102583861</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="N30" t="n">
-        <v>55.73185102583861</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="O30" t="n">
-        <v>55.73185102583861</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P30" t="n">
-        <v>83.04597603355158</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q30" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R30" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S30" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T30" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U30" t="n">
-        <v>82.49138865710684</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="V30" t="n">
-        <v>82.49138865710684</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="W30" t="n">
-        <v>82.49138865710684</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="X30" t="n">
-        <v>82.49138865710684</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="Y30" t="n">
-        <v>82.49138865710684</v>
+        <v>43.15042425981653</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>50.00249887508694</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="C31" t="n">
-        <v>22.13378649092923</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="D31" t="n">
-        <v>2.207202020825291</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="E31" t="n">
-        <v>2.207202020825291</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="F31" t="n">
-        <v>2.207202020825291</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="G31" t="n">
-        <v>2.207202020825291</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="H31" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I31" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J31" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K31" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L31" t="n">
-        <v>29.52132702853827</v>
+        <v>30.48083516466022</v>
       </c>
       <c r="M31" t="n">
-        <v>56.83545203625125</v>
+        <v>69.6688733568824</v>
       </c>
       <c r="N31" t="n">
-        <v>84.14957704396423</v>
+        <v>108.8569115491046</v>
       </c>
       <c r="O31" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="P31" t="n">
-        <v>105.7399236434024</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Q31" t="n">
-        <v>105.7399236434024</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="R31" t="n">
-        <v>105.7399236434024</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="S31" t="n">
-        <v>105.7399236434024</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="T31" t="n">
-        <v>105.7399236434024</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="U31" t="n">
-        <v>105.7399236434024</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="V31" t="n">
-        <v>105.7399236434024</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="W31" t="n">
-        <v>77.87121125924466</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="X31" t="n">
-        <v>50.00249887508694</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="Y31" t="n">
-        <v>50.00249887508694</v>
+        <v>53.22875997826529</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>14.27719126790864</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="C32" t="n">
-        <v>14.27719126790864</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="D32" t="n">
-        <v>14.27719126790864</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="E32" t="n">
-        <v>14.27719126790864</v>
+        <v>108.260178376266</v>
       </c>
       <c r="F32" t="n">
-        <v>14.27719126790864</v>
+        <v>68.2764642733967</v>
       </c>
       <c r="G32" t="n">
-        <v>14.27719126790864</v>
+        <v>28.29275017052741</v>
       </c>
       <c r="H32" t="n">
-        <v>14.27719126790864</v>
+        <v>28.29275017052741</v>
       </c>
       <c r="I32" t="n">
-        <v>14.27719126790864</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="J32" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K32" t="n">
-        <v>29.52132702853827</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="L32" t="n">
-        <v>29.52132702853827</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="M32" t="n">
-        <v>56.83545203625125</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="N32" t="n">
-        <v>83.04597603355158</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="O32" t="n">
-        <v>83.04597603355158</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P32" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q32" t="n">
-        <v>110.3601010412646</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="R32" t="n">
-        <v>110.3601010412646</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="S32" t="n">
-        <v>82.49138865710684</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="T32" t="n">
-        <v>54.62267627294912</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="U32" t="n">
-        <v>54.62267627294912</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="V32" t="n">
-        <v>26.7539638887914</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="W32" t="n">
-        <v>14.27719126790864</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="X32" t="n">
-        <v>14.27719126790864</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="Y32" t="n">
-        <v>14.27719126790864</v>
+        <v>148.2438924791353</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>57.94462678914073</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="C33" t="n">
-        <v>57.94462678914073</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="D33" t="n">
-        <v>30.07591440498301</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="E33" t="n">
-        <v>30.07591440498301</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="F33" t="n">
-        <v>2.207202020825291</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="G33" t="n">
-        <v>2.207202020825291</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="H33" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I33" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J33" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K33" t="n">
-        <v>2.207202020825291</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L33" t="n">
-        <v>29.52132702853827</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="M33" t="n">
-        <v>56.83545203625125</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="N33" t="n">
-        <v>84.14957704396423</v>
+        <v>120.7308247336138</v>
       </c>
       <c r="O33" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="P33" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q33" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R33" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S33" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T33" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U33" t="n">
-        <v>110.3601010412646</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="V33" t="n">
-        <v>110.3601010412646</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="W33" t="n">
-        <v>82.49138865710684</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="X33" t="n">
-        <v>57.94462678914073</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="Y33" t="n">
-        <v>57.94462678914073</v>
+        <v>78.36807964162378</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2.207202020825291</v>
+        <v>28.30602982030574</v>
       </c>
       <c r="C34" t="n">
-        <v>2.207202020825291</v>
+        <v>28.30602982030574</v>
       </c>
       <c r="D34" t="n">
-        <v>2.207202020825291</v>
+        <v>28.30602982030574</v>
       </c>
       <c r="E34" t="n">
-        <v>2.207202020825291</v>
+        <v>28.30602982030574</v>
       </c>
       <c r="F34" t="n">
-        <v>2.207202020825291</v>
+        <v>28.30602982030574</v>
       </c>
       <c r="G34" t="n">
-        <v>2.207202020825291</v>
+        <v>28.30602982030574</v>
       </c>
       <c r="H34" t="n">
-        <v>2.207202020825291</v>
+        <v>28.30602982030574</v>
       </c>
       <c r="I34" t="n">
-        <v>2.207202020825291</v>
+        <v>28.30602982030574</v>
       </c>
       <c r="J34" t="n">
-        <v>2.207202020825291</v>
+        <v>28.30602982030574</v>
       </c>
       <c r="K34" t="n">
-        <v>2.207202020825291</v>
+        <v>28.30602982030574</v>
       </c>
       <c r="L34" t="n">
-        <v>29.52132702853827</v>
+        <v>55.62015482801871</v>
       </c>
       <c r="M34" t="n">
-        <v>56.83545203625125</v>
+        <v>94.80819302024089</v>
       </c>
       <c r="N34" t="n">
-        <v>84.14957704396423</v>
+        <v>133.9962312124631</v>
       </c>
       <c r="O34" t="n">
-        <v>108.4888536788635</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="P34" t="n">
-        <v>105.7399236434024</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q34" t="n">
-        <v>77.87121125924466</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R34" t="n">
-        <v>50.00249887508694</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S34" t="n">
-        <v>22.13378649092923</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T34" t="n">
-        <v>22.13378649092923</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U34" t="n">
-        <v>22.13378649092923</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="V34" t="n">
-        <v>22.13378649092923</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="W34" t="n">
-        <v>22.13378649092923</v>
+        <v>148.2571721289136</v>
       </c>
       <c r="X34" t="n">
-        <v>2.207202020825291</v>
+        <v>108.2734580260443</v>
       </c>
       <c r="Y34" t="n">
-        <v>2.207202020825291</v>
+        <v>68.28974392317502</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>82.49138865710684</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="C35" t="n">
-        <v>54.62267627294912</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="D35" t="n">
-        <v>30.07591440498301</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E35" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F35" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G35" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H35" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I35" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J35" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K35" t="n">
-        <v>29.52132702853827</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L35" t="n">
-        <v>56.83545203625125</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="M35" t="n">
-        <v>83.04597603355158</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="N35" t="n">
-        <v>83.04597603355158</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="O35" t="n">
-        <v>83.04597603355158</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="P35" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q35" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R35" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S35" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T35" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U35" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="V35" t="n">
-        <v>110.3601010412646</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="W35" t="n">
-        <v>110.3601010412646</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="X35" t="n">
-        <v>82.49138865710684</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="Y35" t="n">
-        <v>82.49138865710684</v>
+        <v>78.36807964162378</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>30.07591440498301</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="C36" t="n">
-        <v>2.207202020825291</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="D36" t="n">
-        <v>2.207202020825291</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="E36" t="n">
-        <v>2.207202020825291</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="F36" t="n">
-        <v>2.207202020825291</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="G36" t="n">
-        <v>2.207202020825291</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="H36" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I36" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J36" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K36" t="n">
-        <v>29.52132702853827</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="L36" t="n">
-        <v>29.52132702853827</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="M36" t="n">
-        <v>29.52132702853827</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="N36" t="n">
-        <v>55.73185102583861</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="O36" t="n">
-        <v>83.04597603355158</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="P36" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q36" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R36" t="n">
-        <v>85.81333917329844</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S36" t="n">
-        <v>85.81333917329844</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="T36" t="n">
-        <v>85.81333917329844</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="U36" t="n">
-        <v>85.81333917329844</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="V36" t="n">
-        <v>57.94462678914073</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="W36" t="n">
-        <v>57.94462678914073</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="X36" t="n">
-        <v>57.94462678914073</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="Y36" t="n">
-        <v>57.94462678914073</v>
+        <v>83.13413836268582</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2.207202020825291</v>
+        <v>28.30602982030574</v>
       </c>
       <c r="C37" t="n">
-        <v>2.207202020825291</v>
+        <v>28.30602982030574</v>
       </c>
       <c r="D37" t="n">
-        <v>2.207202020825291</v>
+        <v>28.30602982030574</v>
       </c>
       <c r="E37" t="n">
-        <v>2.207202020825291</v>
+        <v>28.30602982030574</v>
       </c>
       <c r="F37" t="n">
-        <v>2.207202020825291</v>
+        <v>28.30602982030574</v>
       </c>
       <c r="G37" t="n">
-        <v>2.207202020825291</v>
+        <v>28.30602982030574</v>
       </c>
       <c r="H37" t="n">
-        <v>2.207202020825291</v>
+        <v>28.30602982030574</v>
       </c>
       <c r="I37" t="n">
-        <v>2.207202020825291</v>
+        <v>28.30602982030574</v>
       </c>
       <c r="J37" t="n">
-        <v>2.207202020825291</v>
+        <v>28.30602982030574</v>
       </c>
       <c r="K37" t="n">
-        <v>2.207202020825291</v>
+        <v>28.30602982030574</v>
       </c>
       <c r="L37" t="n">
-        <v>29.52132702853827</v>
+        <v>55.62015482801871</v>
       </c>
       <c r="M37" t="n">
-        <v>56.83545203625125</v>
+        <v>94.80819302024089</v>
       </c>
       <c r="N37" t="n">
-        <v>84.14957704396423</v>
+        <v>133.9962312124631</v>
       </c>
       <c r="O37" t="n">
-        <v>108.4888536788635</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="P37" t="n">
-        <v>108.4888536788635</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q37" t="n">
-        <v>108.4888536788635</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R37" t="n">
-        <v>108.4888536788635</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S37" t="n">
-        <v>108.4888536788635</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T37" t="n">
-        <v>80.62014129470579</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U37" t="n">
-        <v>52.75142891054807</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="V37" t="n">
-        <v>30.07591440498301</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="W37" t="n">
-        <v>30.07591440498301</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="X37" t="n">
-        <v>2.207202020825291</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="Y37" t="n">
-        <v>2.207202020825291</v>
+        <v>38.38436553875449</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.207202020825291</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="C38" t="n">
-        <v>2.207202020825291</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="D38" t="n">
-        <v>2.207202020825291</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="E38" t="n">
-        <v>2.207202020825291</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="F38" t="n">
-        <v>2.207202020825291</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="G38" t="n">
-        <v>2.207202020825291</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="H38" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I38" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J38" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K38" t="n">
-        <v>2.207202020825291</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="L38" t="n">
-        <v>29.52132702853827</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="M38" t="n">
-        <v>56.83545203625125</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="N38" t="n">
-        <v>56.83545203625125</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="O38" t="n">
-        <v>83.04597603355158</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P38" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q38" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R38" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S38" t="n">
-        <v>110.3601010412646</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="T38" t="n">
-        <v>85.81333917329844</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="U38" t="n">
-        <v>57.94462678914073</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="V38" t="n">
-        <v>30.07591440498301</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="W38" t="n">
-        <v>2.207202020825291</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="X38" t="n">
-        <v>2.207202020825291</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="Y38" t="n">
-        <v>2.207202020825291</v>
+        <v>123.1178524655551</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>26.7539638887914</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C39" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D39" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E39" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F39" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G39" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H39" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I39" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J39" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K39" t="n">
-        <v>29.52132702853827</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L39" t="n">
-        <v>56.83545203625125</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="M39" t="n">
-        <v>84.14957704396423</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="N39" t="n">
-        <v>110.3601010412646</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="O39" t="n">
-        <v>110.3601010412646</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P39" t="n">
-        <v>110.3601010412646</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="Q39" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R39" t="n">
-        <v>110.3601010412646</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="S39" t="n">
-        <v>110.3601010412646</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="T39" t="n">
-        <v>110.3601010412646</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="U39" t="n">
-        <v>110.3601010412646</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="V39" t="n">
-        <v>110.3601010412646</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="W39" t="n">
-        <v>82.49138865710684</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="X39" t="n">
-        <v>82.49138865710684</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="Y39" t="n">
-        <v>54.62267627294912</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.75142891054807</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="C40" t="n">
-        <v>52.75142891054807</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="D40" t="n">
-        <v>52.75142891054807</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="E40" t="n">
-        <v>24.88271652639035</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="F40" t="n">
-        <v>2.207202020825291</v>
+        <v>13.245045875396</v>
       </c>
       <c r="G40" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H40" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I40" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J40" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K40" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L40" t="n">
-        <v>29.52132702853827</v>
+        <v>30.48083516466022</v>
       </c>
       <c r="M40" t="n">
-        <v>56.83545203625125</v>
+        <v>69.6688733568824</v>
       </c>
       <c r="N40" t="n">
-        <v>84.14957704396423</v>
+        <v>108.8569115491046</v>
       </c>
       <c r="O40" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="P40" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Q40" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="R40" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="S40" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="T40" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="U40" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="V40" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="W40" t="n">
-        <v>108.4888536788635</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="X40" t="n">
-        <v>80.62014129470579</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Y40" t="n">
-        <v>52.75142891054807</v>
+        <v>93.21247408113457</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>54.62267627294912</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C41" t="n">
-        <v>26.7539638887914</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D41" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E41" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F41" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G41" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H41" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I41" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J41" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K41" t="n">
-        <v>2.207202020825291</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="L41" t="n">
-        <v>2.207202020825291</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="M41" t="n">
-        <v>28.41772601812563</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="N41" t="n">
-        <v>55.73185102583861</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="O41" t="n">
-        <v>83.04597603355158</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="P41" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q41" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R41" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S41" t="n">
-        <v>110.3601010412646</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="T41" t="n">
-        <v>110.3601010412646</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="U41" t="n">
-        <v>110.3601010412646</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="V41" t="n">
-        <v>82.49138865710684</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="W41" t="n">
-        <v>82.49138865710684</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="X41" t="n">
-        <v>82.49138865710684</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="Y41" t="n">
-        <v>82.49138865710684</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>82.49138865710684</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="C42" t="n">
-        <v>82.49138865710684</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D42" t="n">
-        <v>82.49138865710684</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E42" t="n">
-        <v>54.62267627294912</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F42" t="n">
-        <v>26.7539638887914</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G42" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H42" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I42" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J42" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K42" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L42" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="M42" t="n">
-        <v>2.207202020825291</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="N42" t="n">
-        <v>28.41772601812563</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="O42" t="n">
-        <v>55.73185102583861</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="P42" t="n">
-        <v>83.04597603355158</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="Q42" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R42" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S42" t="n">
-        <v>110.3601010412646</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T42" t="n">
-        <v>82.49138865710684</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U42" t="n">
-        <v>82.49138865710684</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="V42" t="n">
-        <v>82.49138865710684</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="W42" t="n">
-        <v>82.49138865710684</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="X42" t="n">
-        <v>82.49138865710684</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="Y42" t="n">
-        <v>82.49138865710684</v>
+        <v>78.36807964162378</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>31.94716176738407</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="C43" t="n">
-        <v>31.94716176738407</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="D43" t="n">
-        <v>31.94716176738407</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="E43" t="n">
-        <v>4.078449383226349</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F43" t="n">
-        <v>4.078449383226349</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G43" t="n">
-        <v>4.078449383226349</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H43" t="n">
-        <v>4.078449383226349</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I43" t="n">
-        <v>4.078449383226349</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J43" t="n">
-        <v>4.078449383226349</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K43" t="n">
-        <v>4.078449383226349</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L43" t="n">
-        <v>31.39257439093933</v>
+        <v>30.48083516466022</v>
       </c>
       <c r="M43" t="n">
-        <v>58.7066993986523</v>
+        <v>69.6688733568824</v>
       </c>
       <c r="N43" t="n">
-        <v>86.02082440636528</v>
+        <v>108.8569115491046</v>
       </c>
       <c r="O43" t="n">
-        <v>110.3601010412646</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="P43" t="n">
-        <v>107.6111710058034</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Q43" t="n">
-        <v>79.74245862164571</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="R43" t="n">
-        <v>59.81587415154178</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="S43" t="n">
-        <v>31.94716176738407</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="T43" t="n">
-        <v>31.94716176738407</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="U43" t="n">
-        <v>31.94716176738407</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="V43" t="n">
-        <v>31.94716176738407</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="W43" t="n">
-        <v>31.94716176738407</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="X43" t="n">
-        <v>31.94716176738407</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="Y43" t="n">
-        <v>31.94716176738407</v>
+        <v>93.21247408113457</v>
       </c>
     </row>
     <row r="44">
@@ -9401,22 +9401,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>220.0898510449805</v>
+        <v>259.6737280068211</v>
       </c>
       <c r="L20" t="n">
-        <v>235.7664149699872</v>
+        <v>275.3502919318278</v>
       </c>
       <c r="M20" t="n">
-        <v>256.8215099922226</v>
+        <v>268.3307616249986</v>
       </c>
       <c r="N20" t="n">
-        <v>257.0030888569071</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O20" t="n">
-        <v>257.6882366820029</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P20" t="n">
-        <v>258.8230210155857</v>
+        <v>270.8168727171101</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
@@ -9480,25 +9480,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>165.4314642346751</v>
+        <v>177.4253159361996</v>
       </c>
       <c r="L21" t="n">
-        <v>166.1444050401903</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>169.7240591823345</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>157.8169888482831</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>180.5807728421703</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>173.5582843761708</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>179.5656510478621</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9565,10 +9565,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M22" t="n">
-        <v>166.5158092079212</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N22" t="n">
-        <v>155.2755697255493</v>
+        <v>167.2694214270738</v>
       </c>
       <c r="O22" t="n">
         <v>163.0416663658825</v>
@@ -9638,22 +9638,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>220.0898510449805</v>
+        <v>259.6737280068211</v>
       </c>
       <c r="L23" t="n">
-        <v>263.3564402303034</v>
+        <v>273.750943367713</v>
       </c>
       <c r="M23" t="n">
-        <v>257.9362584875889</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N23" t="n">
-        <v>255.8883403615407</v>
+        <v>268.9969405584315</v>
       </c>
       <c r="O23" t="n">
         <v>230.0982114216867</v>
       </c>
       <c r="P23" t="n">
-        <v>258.8230210155857</v>
+        <v>270.8168727171101</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
@@ -9717,25 +9717,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>165.4314642346751</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>176.5389081776</v>
       </c>
       <c r="M24" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>157.8169888482831</v>
+        <v>170.9255890451739</v>
       </c>
       <c r="O24" t="n">
-        <v>170.1862697047606</v>
+        <v>182.180121406285</v>
       </c>
       <c r="P24" t="n">
-        <v>161.5644326746464</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>179.5656510478621</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9802,10 +9802,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M25" t="n">
-        <v>166.5158092079212</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N25" t="n">
-        <v>155.2755697255493</v>
+        <v>167.2694214270738</v>
       </c>
       <c r="O25" t="n">
         <v>163.0416663658825</v>
@@ -9875,22 +9875,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>247.6798763052967</v>
+        <v>259.6737280068211</v>
       </c>
       <c r="L26" t="n">
-        <v>263.3564402303034</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M26" t="n">
-        <v>230.3462332272727</v>
+        <v>269.9301101891133</v>
       </c>
       <c r="N26" t="n">
-        <v>229.4130635965909</v>
+        <v>268.9969405584315</v>
       </c>
       <c r="O26" t="n">
-        <v>256.5734881866366</v>
+        <v>268.0827398194126</v>
       </c>
       <c r="P26" t="n">
-        <v>258.8230210155857</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -9954,22 +9954,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>165.4314642346751</v>
+        <v>177.4253159361996</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>178.1382567417148</v>
       </c>
       <c r="M27" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>157.8169888482831</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>170.1862697047606</v>
+        <v>180.5807728421703</v>
       </c>
       <c r="P27" t="n">
-        <v>161.5644326746464</v>
+        <v>173.5582843761708</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -10039,10 +10039,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M28" t="n">
-        <v>166.5158092079212</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N28" t="n">
-        <v>155.2755697255493</v>
+        <v>167.2694214270738</v>
       </c>
       <c r="O28" t="n">
         <v>163.0416663658825</v>
@@ -10112,22 +10112,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>247.6798763052967</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L29" t="n">
-        <v>235.7664149699872</v>
+        <v>275.3502919318278</v>
       </c>
       <c r="M29" t="n">
-        <v>257.9362584875889</v>
+        <v>268.3307616249986</v>
       </c>
       <c r="N29" t="n">
-        <v>257.0030888569071</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O29" t="n">
-        <v>256.5734881866366</v>
+        <v>269.6820883835273</v>
       </c>
       <c r="P29" t="n">
-        <v>231.2329957552695</v>
+        <v>270.8168727171101</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10191,25 +10191,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>165.4314642346751</v>
+        <v>177.4253159361996</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>176.5389081776</v>
       </c>
       <c r="M30" t="n">
-        <v>168.6093106869682</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>182.180121406285</v>
       </c>
       <c r="P30" t="n">
-        <v>161.5644326746464</v>
+        <v>173.5582843761708</v>
       </c>
       <c r="Q30" t="n">
-        <v>167.5717993463377</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10276,10 +10276,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M31" t="n">
-        <v>166.5158092079212</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N31" t="n">
-        <v>155.2755697255493</v>
+        <v>167.2694214270738</v>
       </c>
       <c r="O31" t="n">
         <v>163.0416663658825</v>
@@ -10349,22 +10349,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>247.6798763052967</v>
+        <v>258.0743794427063</v>
       </c>
       <c r="L32" t="n">
         <v>235.7664149699872</v>
       </c>
       <c r="M32" t="n">
-        <v>257.9362584875889</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N32" t="n">
-        <v>255.8883403615407</v>
+        <v>268.9969405584315</v>
       </c>
       <c r="O32" t="n">
-        <v>230.0982114216867</v>
+        <v>269.6820883835273</v>
       </c>
       <c r="P32" t="n">
-        <v>258.8230210155857</v>
+        <v>270.8168727171101</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10428,19 +10428,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>177.4253159361996</v>
       </c>
       <c r="L33" t="n">
-        <v>166.1444050401903</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>169.7240591823345</v>
+        <v>181.7179108838589</v>
       </c>
       <c r="N33" t="n">
-        <v>158.9317373436494</v>
+        <v>170.9255890451739</v>
       </c>
       <c r="O33" t="n">
-        <v>169.0715212093943</v>
+        <v>180.5807728421703</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -10513,10 +10513,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M34" t="n">
-        <v>166.5158092079212</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N34" t="n">
-        <v>155.2755697255493</v>
+        <v>167.2694214270738</v>
       </c>
       <c r="O34" t="n">
         <v>163.0416663658825</v>
@@ -10586,22 +10586,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>247.6798763052967</v>
+        <v>259.6737280068211</v>
       </c>
       <c r="L35" t="n">
-        <v>263.3564402303034</v>
+        <v>273.750943367713</v>
       </c>
       <c r="M35" t="n">
-        <v>256.8215099922226</v>
+        <v>269.9301101891133</v>
       </c>
       <c r="N35" t="n">
-        <v>229.4130635965909</v>
+        <v>268.9969405584315</v>
       </c>
       <c r="O35" t="n">
         <v>230.0982114216867</v>
       </c>
       <c r="P35" t="n">
-        <v>258.8230210155857</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10665,22 +10665,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>165.4314642346751</v>
+        <v>175.8259673720848</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>178.1382567417148</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>181.7179108838589</v>
       </c>
       <c r="N36" t="n">
-        <v>157.8169888482831</v>
+        <v>170.9255890451739</v>
       </c>
       <c r="O36" t="n">
-        <v>170.1862697047606</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>161.5644326746464</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -10750,10 +10750,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M37" t="n">
-        <v>166.5158092079212</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N37" t="n">
-        <v>155.2755697255493</v>
+        <v>167.2694214270738</v>
       </c>
       <c r="O37" t="n">
         <v>163.0416663658825</v>
@@ -10823,22 +10823,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>220.0898510449805</v>
+        <v>258.0743794427063</v>
       </c>
       <c r="L38" t="n">
-        <v>263.3564402303034</v>
+        <v>275.3502919318278</v>
       </c>
       <c r="M38" t="n">
-        <v>257.9362584875889</v>
+        <v>269.9301101891133</v>
       </c>
       <c r="N38" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O38" t="n">
-        <v>256.5734881866366</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P38" t="n">
-        <v>258.8230210155857</v>
+        <v>270.8168727171101</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10902,16 +10902,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>165.4314642346751</v>
+        <v>177.4253159361996</v>
       </c>
       <c r="L39" t="n">
-        <v>166.1444050401903</v>
+        <v>178.1382567417148</v>
       </c>
       <c r="M39" t="n">
-        <v>169.7240591823345</v>
+        <v>180.1185623197441</v>
       </c>
       <c r="N39" t="n">
-        <v>157.8169888482831</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>142.5962444444444</v>
@@ -10920,7 +10920,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>179.5656510478621</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -10987,10 +10987,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M40" t="n">
-        <v>166.5158092079212</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N40" t="n">
-        <v>155.2755697255493</v>
+        <v>167.2694214270738</v>
       </c>
       <c r="O40" t="n">
         <v>163.0416663658825</v>
@@ -11060,22 +11060,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>220.0898510449805</v>
+        <v>258.0743794427063</v>
       </c>
       <c r="L41" t="n">
         <v>235.7664149699872</v>
       </c>
       <c r="M41" t="n">
-        <v>256.8215099922226</v>
+        <v>269.9301101891133</v>
       </c>
       <c r="N41" t="n">
-        <v>257.0030888569071</v>
+        <v>268.9969405584315</v>
       </c>
       <c r="O41" t="n">
-        <v>257.6882366820029</v>
+        <v>269.6820883835273</v>
       </c>
       <c r="P41" t="n">
-        <v>258.8230210155857</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11148,16 +11148,16 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>157.8169888482831</v>
+        <v>170.9255890451739</v>
       </c>
       <c r="O42" t="n">
-        <v>170.1862697047606</v>
+        <v>180.5807728421703</v>
       </c>
       <c r="P42" t="n">
-        <v>161.5644326746464</v>
+        <v>173.5582843761708</v>
       </c>
       <c r="Q42" t="n">
-        <v>167.5717993463377</v>
+        <v>179.5656510478621</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11224,10 +11224,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M43" t="n">
-        <v>166.5158092079212</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N43" t="n">
-        <v>155.2755697255493</v>
+        <v>167.2694214270738</v>
       </c>
       <c r="O43" t="n">
         <v>163.0416663658825</v>
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>343.14996470164</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23981,13 +23981,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>375.7188605532945</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>304.609323287778</v>
       </c>
       <c r="I20" t="n">
-        <v>186.1745953211195</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -24023,16 +24023,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>223.7556276475204</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>321.6509434570969</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>342.1410754181529</v>
+        <v>330.1472237166284</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24048,7 +24048,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>133.1246220264752</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -24093,13 +24093,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>75.85653990335669</v>
+        <v>65.29235532465395</v>
       </c>
       <c r="S21" t="n">
-        <v>144.0931458435217</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>172.5747034345055</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
@@ -24111,10 +24111,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>178.1829599431613</v>
+        <v>166.1891082416369</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>166.0988188154638</v>
       </c>
     </row>
     <row r="22">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>152.2419549216212</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24148,10 +24148,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J22" t="n">
-        <v>93.17991258204621</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -24169,13 +24169,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q22" t="n">
-        <v>86.16204325169439</v>
+        <v>46.5781662898538</v>
       </c>
       <c r="R22" t="n">
-        <v>149.7033661168533</v>
+        <v>137.7095144153289</v>
       </c>
       <c r="S22" t="n">
-        <v>224.0165980369723</v>
+        <v>184.4327210751317</v>
       </c>
       <c r="T22" t="n">
         <v>227.9455894282815</v>
@@ -24190,10 +24190,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>198.119630128721</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>208.6071009908305</v>
       </c>
     </row>
     <row r="23">
@@ -24206,25 +24206,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>337.6828665106914</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>347.0648912442726</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>367.2921687798708</v>
       </c>
       <c r="G23" t="n">
-        <v>387.7127122548189</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>315.1735078664807</v>
+        <v>299.8909251539266</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>170.8920126085653</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -24269,7 +24269,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>342.1410754181529</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24291,7 +24291,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>133.3437862061145</v>
+        <v>122.7796016274118</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -24333,16 +24333,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>144.0931458435217</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>172.5747034345055</v>
+        <v>160.580851732981</v>
       </c>
       <c r="U24" t="n">
-        <v>198.3513568206587</v>
+        <v>186.3575051191342</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>193.2167101875847</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
@@ -24364,7 +24364,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>139.6567958383117</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24379,13 +24379,13 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H25" t="n">
-        <v>134.6371472471234</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I25" t="n">
-        <v>133.0017155667489</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J25" t="n">
-        <v>93.35918011667277</v>
+        <v>83.3816277554085</v>
       </c>
       <c r="K25" t="n">
         <v>22.26949182588285</v>
@@ -24406,7 +24406,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>46.5781662898538</v>
       </c>
       <c r="R25" t="n">
         <v>177.2933913771695</v>
@@ -24415,10 +24415,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>200.3555641679654</v>
+        <v>188.3617124664409</v>
       </c>
       <c r="U25" t="n">
-        <v>286.3190293564909</v>
+        <v>246.7351523946503</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24440,28 +24440,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>355.1438164031645</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>315.0991646588424</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>379.2860204813953</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>387.7127122548189</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>170.8920126085653</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -24494,10 +24494,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>198.7945553148449</v>
+        <v>188.2303707361422</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>211.7617759459959</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24522,10 +24522,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>133.1246220264752</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>113.3261780629074</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -24540,10 +24540,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>49.81275588957449</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24567,10 +24567,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>75.85653990335669</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>132.0992941419972</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
@@ -24582,13 +24582,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>224.1049579006035</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>178.1829599431613</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>178.0926705169882</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24610,19 +24610,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>105.8371710610907</v>
       </c>
       <c r="G28" t="n">
-        <v>140.4009540981426</v>
+        <v>128.4071023966182</v>
       </c>
       <c r="H28" t="n">
-        <v>162.2271725074396</v>
+        <v>122.643295545599</v>
       </c>
       <c r="I28" t="n">
-        <v>133.0017155667489</v>
+        <v>148.1943633011005</v>
       </c>
       <c r="J28" t="n">
-        <v>65.76915485635664</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K28" t="n">
         <v>22.26949182588285</v>
@@ -24640,7 +24640,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>86.16204325169439</v>
@@ -24661,7 +24661,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>258.9329730762748</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24677,13 +24677,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>380.3725359833514</v>
+        <v>343.14996470164</v>
       </c>
       <c r="C29" t="n">
-        <v>337.6828665106914</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>327.0930163603668</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24701,7 +24701,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24722,16 +24722,16 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>169.4361926244048</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>183.5119726022908</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
@@ -24743,10 +24743,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>342.1410754181529</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>351.3724598280644</v>
       </c>
     </row>
     <row r="30">
@@ -24756,10 +24756,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>138.9431583895512</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>145.1184737279996</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24771,10 +24771,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>97.75964020137005</v>
       </c>
       <c r="H30" t="n">
-        <v>87.93414998721002</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
@@ -24813,19 +24813,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>198.3513568206587</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>212.111106199079</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>166.1891082416369</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>170.8172169493152</v>
       </c>
     </row>
     <row r="31">
@@ -24838,10 +24838,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>139.6567958383117</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>128.8881543928095</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,10 +24850,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.9909793584588</v>
+        <v>158.0134269971945</v>
       </c>
       <c r="H31" t="n">
-        <v>162.2271725074396</v>
+        <v>122.643295545599</v>
       </c>
       <c r="I31" t="n">
         <v>155.4504749272583</v>
@@ -24877,7 +24877,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
         <v>86.16204325169439</v>
@@ -24889,19 +24889,19 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
-        <v>227.9455894282815</v>
+        <v>188.3617124664409</v>
       </c>
       <c r="U31" t="n">
-        <v>286.3190293564909</v>
+        <v>246.7351523946503</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>258.9329730762748</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>198.119630128721</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24923,19 +24923,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>342.3464931104212</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>367.2921687798708</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>375.7188605532945</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>197.5503993115741</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24959,25 +24959,25 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>181.4300443259292</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>195.5058243038152</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>300.1622332098187</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>336.8889638227391</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -24999,19 +24999,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>119.8550403043226</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>117.4791871330677</v>
+        <v>105.4853354315433</v>
       </c>
       <c r="G33" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>77.36996540850728</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
@@ -25050,16 +25050,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>186.3575051191342</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>224.1049579006035</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>181.471690954191</v>
+        <v>166.1891082416369</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>140.2481032200967</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25114,16 +25114,16 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
-        <v>58.57201799137825</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>149.7033661168533</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
-        <v>196.4265727766561</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
         <v>227.9455894282815</v>
@@ -25135,13 +25135,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>276.5454459753267</v>
       </c>
       <c r="X34" t="n">
-        <v>205.9823367636343</v>
+        <v>186.1257784271966</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>179.0007763902542</v>
       </c>
     </row>
     <row r="35">
@@ -25151,16 +25151,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>347.8683628354914</v>
       </c>
       <c r="C35" t="n">
-        <v>337.6828665106914</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>330.3817473713965</v>
+        <v>315.0991646588424</v>
       </c>
       <c r="E35" t="n">
-        <v>354.3403448119457</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -25211,13 +25211,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>288.1683815082943</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>309.6570917555724</v>
       </c>
       <c r="X35" t="n">
-        <v>342.1410754181529</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25230,10 +25230,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>138.9431583895512</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>145.1184737279996</v>
+        <v>133.1246220264752</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -25248,7 +25248,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>72.65156727465587</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
@@ -25278,19 +25278,19 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>75.85653990335669</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>132.0992941419972</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>165.2992498668324</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>205.2105618891091</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>169.854427820673</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25363,22 +25363,22 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
-        <v>200.3555641679654</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
-        <v>258.7290040961748</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
-        <v>229.6888839633186</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>246.9391213747504</v>
       </c>
       <c r="X37" t="n">
-        <v>198.119630128721</v>
+        <v>186.1257784271966</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>179.0007763902542</v>
       </c>
     </row>
     <row r="38">
@@ -25397,16 +25397,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>342.3464931104212</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>375.7188605532945</v>
       </c>
       <c r="H38" t="n">
-        <v>339.4748021157671</v>
+        <v>299.8909251539266</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
@@ -25439,19 +25439,19 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>174.1545907582562</v>
       </c>
       <c r="T38" t="n">
-        <v>198.7945553148449</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>223.7556276475204</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>300.1622332098187</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>321.6509434570969</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -25467,10 +25467,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>138.9431583895512</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>148.4072047390293</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -25515,28 +25515,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>60.57395719080255</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>132.0992941419972</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>160.580851732981</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>191.0759032529857</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>224.1049579006035</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>178.0926705169882</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25555,13 +25555,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>118.843937386253</v>
+        <v>106.8500856847286</v>
       </c>
       <c r="F40" t="n">
-        <v>122.9722886624218</v>
+        <v>105.8371710610907</v>
       </c>
       <c r="G40" t="n">
-        <v>167.9909793584588</v>
+        <v>158.0134269971945</v>
       </c>
       <c r="H40" t="n">
         <v>162.2271725074396</v>
@@ -25612,10 +25612,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>198.119630128721</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>190.9946280917787</v>
+        <v>179.0007763902542</v>
       </c>
     </row>
     <row r="41">
@@ -25625,13 +25625,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>355.1438164031645</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>337.6828665106914</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>330.3817473713965</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -25676,16 +25676,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>169.4361926244048</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>183.5119726022908</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3456529078365</v>
+        <v>211.7617759459959</v>
       </c>
       <c r="V41" t="n">
-        <v>300.1622332098187</v>
+        <v>292.8867796421457</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25704,22 +25704,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>126.9493066880268</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>137.8430201603266</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>130.0550551950848</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>117.4791871330677</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>113.0422229139242</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
         <v>112.2354442364965</v>
@@ -25758,7 +25758,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>172.5747034345055</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
@@ -25767,13 +25767,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>212.111106199079</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>166.0988188154638</v>
       </c>
     </row>
     <row r="43">
@@ -25786,13 +25786,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>127.6629441367872</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>138.6379206569481</v>
       </c>
       <c r="E43" t="n">
-        <v>118.843937386253</v>
+        <v>106.8500856847286</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25825,16 +25825,16 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q43" t="n">
-        <v>58.57201799137825</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>157.5660727517666</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
-        <v>196.4265727766561</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T43" t="n">
         <v>227.9455894282815</v>
@@ -25843,7 +25843,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>212.5537663619874</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>357481.768694293</v>
+        <v>367177.1662240802</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>357481.7686942931</v>
+        <v>367177.1662240803</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>357481.7686942929</v>
+        <v>367177.1662240803</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>357481.768694293</v>
+        <v>367177.1662240803</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>357481.7686942929</v>
+        <v>367177.1662240803</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>357481.768694293</v>
+        <v>367177.1662240802</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>357481.7686942929</v>
+        <v>367177.1662240802</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>357481.7686942931</v>
+        <v>367177.1662240801</v>
       </c>
     </row>
     <row r="16">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>75255.18387201248</v>
+        <v>75255.18387201249</v>
       </c>
       <c r="C2" t="n">
         <v>75255.18387201249</v>
@@ -26323,34 +26323,34 @@
         <v>75255.18387201249</v>
       </c>
       <c r="F2" t="n">
-        <v>75255.18387201249</v>
+        <v>75255.18387201248</v>
       </c>
       <c r="G2" t="n">
         <v>75255.18387201249</v>
       </c>
       <c r="H2" t="n">
-        <v>80710.96958749177</v>
+        <v>82895.9595960524</v>
       </c>
       <c r="I2" t="n">
-        <v>80710.96958749178</v>
+        <v>82895.95959605237</v>
       </c>
       <c r="J2" t="n">
-        <v>80710.96958749177</v>
+        <v>82895.95959605239</v>
       </c>
       <c r="K2" t="n">
-        <v>80710.96958749175</v>
+        <v>82895.95959605239</v>
       </c>
       <c r="L2" t="n">
-        <v>80710.96958749178</v>
+        <v>82895.95959605239</v>
       </c>
       <c r="M2" t="n">
-        <v>80710.96958749175</v>
+        <v>82895.95959605237</v>
       </c>
       <c r="N2" t="n">
-        <v>80710.96958749175</v>
+        <v>82895.95959605239</v>
       </c>
       <c r="O2" t="n">
-        <v>80710.96958749177</v>
+        <v>82895.9595960524</v>
       </c>
       <c r="P2" t="n">
         <v>75255.18387201249</v>
@@ -26381,7 +26381,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>7444.037125460638</v>
+        <v>10680.08625919725</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33411.91578776644</v>
+        <v>32252.22165943392</v>
       </c>
       <c r="C4" t="n">
-        <v>33411.91578776643</v>
+        <v>32252.22165943392</v>
       </c>
       <c r="D4" t="n">
-        <v>33411.91578776644</v>
+        <v>32252.22165943392</v>
       </c>
       <c r="E4" t="n">
-        <v>33411.91578776643</v>
+        <v>32252.22165943392</v>
       </c>
       <c r="F4" t="n">
-        <v>33411.91578776644</v>
+        <v>32252.22165943392</v>
       </c>
       <c r="G4" t="n">
-        <v>33411.91578776643</v>
+        <v>32252.22165943392</v>
       </c>
       <c r="H4" t="n">
-        <v>35907.22272194442</v>
+        <v>35626.73890167465</v>
       </c>
       <c r="I4" t="n">
-        <v>35907.22272194441</v>
+        <v>35626.73890167465</v>
       </c>
       <c r="J4" t="n">
-        <v>35907.22272194442</v>
+        <v>35626.73890167464</v>
       </c>
       <c r="K4" t="n">
-        <v>35907.22272194442</v>
+        <v>35626.73890167465</v>
       </c>
       <c r="L4" t="n">
-        <v>35907.22272194442</v>
+        <v>35626.73890167464</v>
       </c>
       <c r="M4" t="n">
-        <v>35907.22272194442</v>
+        <v>35626.73890167465</v>
       </c>
       <c r="N4" t="n">
-        <v>35907.22272194442</v>
+        <v>35626.73890167465</v>
       </c>
       <c r="O4" t="n">
-        <v>35907.22272194442</v>
+        <v>35626.73890167465</v>
       </c>
       <c r="P4" t="n">
-        <v>33411.91578776644</v>
+        <v>32252.22165943392</v>
       </c>
     </row>
     <row r="5">
@@ -26485,28 +26485,28 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>1677.473535827221</v>
+        <v>2406.699719279908</v>
       </c>
       <c r="I5" t="n">
-        <v>1677.473535827221</v>
+        <v>2406.699719279908</v>
       </c>
       <c r="J5" t="n">
-        <v>1677.473535827221</v>
+        <v>2406.699719279908</v>
       </c>
       <c r="K5" t="n">
-        <v>1677.473535827221</v>
+        <v>2406.699719279908</v>
       </c>
       <c r="L5" t="n">
-        <v>1677.473535827221</v>
+        <v>2406.699719279908</v>
       </c>
       <c r="M5" t="n">
-        <v>1677.473535827221</v>
+        <v>2406.699719279908</v>
       </c>
       <c r="N5" t="n">
-        <v>1677.473535827221</v>
+        <v>2406.699719279908</v>
       </c>
       <c r="O5" t="n">
-        <v>1677.473535827221</v>
+        <v>2406.699719279908</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8215.668084246041</v>
+        <v>9375.362212578577</v>
       </c>
       <c r="C6" t="n">
-        <v>8215.668084246063</v>
+        <v>9375.362212578577</v>
       </c>
       <c r="D6" t="n">
-        <v>8215.668084246056</v>
+        <v>9375.362212578577</v>
       </c>
       <c r="E6" t="n">
-        <v>41843.26808424606</v>
+        <v>43002.96221257858</v>
       </c>
       <c r="F6" t="n">
-        <v>41843.26808424605</v>
+        <v>43002.96221257856</v>
       </c>
       <c r="G6" t="n">
-        <v>41843.26808424606</v>
+        <v>43002.96221257858</v>
       </c>
       <c r="H6" t="n">
-        <v>35682.23620425948</v>
+        <v>34182.4347159006</v>
       </c>
       <c r="I6" t="n">
-        <v>43126.27332972015</v>
+        <v>44862.52097509782</v>
       </c>
       <c r="J6" t="n">
-        <v>43126.27332972013</v>
+        <v>44862.52097509784</v>
       </c>
       <c r="K6" t="n">
-        <v>43126.27332972011</v>
+        <v>44862.52097509783</v>
       </c>
       <c r="L6" t="n">
-        <v>43126.27332972014</v>
+        <v>44862.52097509784</v>
       </c>
       <c r="M6" t="n">
-        <v>43126.27332972011</v>
+        <v>44862.52097509782</v>
       </c>
       <c r="N6" t="n">
-        <v>43126.27332972011</v>
+        <v>44862.52097509783</v>
       </c>
       <c r="O6" t="n">
-        <v>43126.27332972013</v>
+        <v>44862.52097509785</v>
       </c>
       <c r="P6" t="n">
-        <v>41843.26808424605</v>
+        <v>43002.96221257858</v>
       </c>
     </row>
   </sheetData>
@@ -26805,28 +26805,28 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="I4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="J4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="K4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27027,7 +27027,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
     </row>
   </sheetData>
@@ -36121,22 +36121,22 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M20" t="n">
-        <v>26.47527676494984</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="N20" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36200,25 +36200,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L21" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>26.47527676494983</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36285,10 +36285,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M22" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N22" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O22" t="n">
         <v>24.58512791403967</v>
@@ -36358,22 +36358,22 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L23" t="n">
-        <v>27.59002526031614</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="M23" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>26.47527676494983</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36437,25 +36437,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>26.47527676494984</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O24" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P24" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36522,10 +36522,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M25" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N25" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O25" t="n">
         <v>24.58512791403967</v>
@@ -36595,22 +36595,22 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L26" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O26" t="n">
-        <v>26.47527676494983</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="P26" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36674,22 +36674,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>26.47527676494984</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>27.59002526031614</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="P27" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36759,10 +36759,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M28" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N28" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O28" t="n">
         <v>24.58512791403967</v>
@@ -36832,22 +36832,22 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M29" t="n">
-        <v>27.59002526031614</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="N29" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>26.47527676494983</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36911,25 +36911,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="M30" t="n">
-        <v>26.47527676494984</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P30" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q30" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36996,10 +36996,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M31" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N31" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O31" t="n">
         <v>24.58512791403967</v>
@@ -37069,22 +37069,22 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>27.59002526031614</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>26.47527676494983</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P32" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37148,19 +37148,19 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L33" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N33" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O33" t="n">
-        <v>26.47527676494983</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37233,10 +37233,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M34" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N34" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O34" t="n">
         <v>24.58512791403967</v>
@@ -37306,22 +37306,22 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L35" t="n">
-        <v>27.59002526031614</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="M35" t="n">
-        <v>26.47527676494983</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37385,22 +37385,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>27.59002526031614</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N36" t="n">
-        <v>26.47527676494984</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O36" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37470,10 +37470,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M37" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N37" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O37" t="n">
         <v>24.58512791403967</v>
@@ -37543,22 +37543,22 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="L38" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M38" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>26.47527676494983</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37622,16 +37622,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L39" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M39" t="n">
-        <v>27.59002526031614</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="N39" t="n">
-        <v>26.47527676494983</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37640,7 +37640,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37707,10 +37707,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M40" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N40" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O40" t="n">
         <v>24.58512791403967</v>
@@ -37780,22 +37780,22 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>26.47527676494984</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N41" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O41" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P41" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37868,16 +37868,16 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>26.47527676494984</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O42" t="n">
-        <v>27.59002526031614</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="P42" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q42" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37944,10 +37944,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M43" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N43" t="n">
-        <v>27.59002526031614</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O43" t="n">
         <v>24.58512791403967</v>
